--- a/8 - SVM/SVM_Results.xlsx
+++ b/8 - SVM/SVM_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g3org\PycharmProjects\MSc_Exe_Repo_Machine_Learning\8 - SVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175A992D-F1B7-4808-B737-BF5B9D94FA9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0BD72A-2E7B-4DFC-9C28-36CC99BFD70D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3285" yWindow="-15120" windowWidth="21600" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="28">
   <si>
     <t>C</t>
   </si>
@@ -74,20 +74,50 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>No Oversampling / Undersampling</t>
-  </si>
-  <si>
     <t>Undersampling</t>
   </si>
   <si>
     <t>Oversampling</t>
+  </si>
+  <si>
+    <t>Undersampling - Tomek Links</t>
+  </si>
+  <si>
+    <t>Undersampling - Edited Nearest Neighbors Rule</t>
+  </si>
+  <si>
+    <t>Undersampling - One-Sided Selection</t>
+  </si>
+  <si>
+    <t>Undersampling - Neighborhood Cleaning Rule</t>
+  </si>
+  <si>
+    <t>Near Miss Undersampling (version=1)</t>
+  </si>
+  <si>
+    <t>Near Miss Undersampling (version=2)</t>
+  </si>
+  <si>
+    <t>Near Miss Undersampling (version=3)</t>
+  </si>
+  <si>
+    <t>SMOTE</t>
+  </si>
+  <si>
+    <t>SVM SMOTE</t>
+  </si>
+  <si>
+    <t>SVM (No Oversampling / Undersampling)</t>
+  </si>
+  <si>
+    <t>svm.SCV results in creditcard.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,16 +133,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="gray0625"/>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -185,11 +226,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,6 +320,34 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="1" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="1" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="1" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,375 +663,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:AT48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="17"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.999403110845827</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.95563628129917499</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.84439169440927697</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.892255633760347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>10</v>
+    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.999403110845827</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.95563628129917499</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.84439169440927697</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.892255633760347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
         <v>6</v>
       </c>
-      <c r="D4" s="3">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
         <v>0.99667614667088</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F5" s="3">
         <v>0.64606325795160402</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>0.887400165674184</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H5" s="3">
         <v>0.71171723482864802</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3">
         <v>0.99841999929777703</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="3">
         <v>0.49920999964888801</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="3">
         <v>0.5</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H6" s="3">
         <v>0.49960468752745202</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3">
+    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
         <v>0.99847851784230401</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="3">
         <v>0.99923921440108598</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="3">
         <v>0.51851851851851805</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H7" s="3">
         <v>0.53533360329712798</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3">
         <v>0.99755392483878103</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="3">
         <v>0.55656522051155799</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="3">
         <v>0.54024254596416599</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="3">
         <v>0.54700670107191995</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3">
+    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3">
         <v>0.99682829488664904</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F9" s="3">
         <v>0.51951407119646698</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="3">
         <v>0.52138994388959203</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H9" s="3">
         <v>0.52040717182571405</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>100</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4">
         <v>0.99678148005102796</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="4">
         <v>0.512745590423062</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G10" s="4">
         <v>0.51397081425214697</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="4">
         <v>0.51332831089325204</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="14"/>
+    </row>
+    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="11"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+    </row>
+    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="I13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+    </row>
+    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C14" s="3">
         <v>0.2</v>
       </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.99411450914185495</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.99411851390956596</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.99411741240213602</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.99411450861581196</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3">
+      <c r="K14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+    </row>
+    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3">
         <v>6</v>
       </c>
-      <c r="D13" s="3">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.99743828734560802</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.99744716863946703</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.99744225388352803</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.99743828491986397</v>
+      </c>
+      <c r="I15" s="3">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
+        <v>6</v>
+      </c>
+      <c r="L15" s="3">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+    </row>
+    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3">
-        <v>5</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="3">
+        <v>0.99925552057870004</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.99925524607128502</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.99925593163391102</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.99925551931786805</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+    </row>
+    <row r="17" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
@@ -903,194 +1210,1686 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="I17" s="3">
+        <v>10</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="3">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+    </row>
+    <row r="18" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+    </row>
+    <row r="19" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3">
+        <v>10</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>100</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4">
-        <v>5</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="3">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="14"/>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="7"/>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.97297297297297303</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.97333333333333305</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.97402597402597402</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.97296803652968</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.93918918918918903</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.93908907993415003</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.93908907993415003</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0.93908907993415003</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T24" s="3">
+        <v>2</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0.83703703703703702</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0.84174880237872296</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0.84540041182035697</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0.83689384370366304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>10</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.96283783783783705</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.96405228758169903</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.96428571428571397</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.96283741368487097</v>
+      </c>
+      <c r="I25" s="3">
+        <v>10</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="3">
+        <v>6</v>
+      </c>
+      <c r="L25" s="3">
+        <v>5</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.93918918918918903</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.93896198830409305</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.93936345344796002</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0.93911970382558596</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>10</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S25" s="3">
+        <v>6</v>
+      </c>
+      <c r="T25" s="3">
+        <v>5</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0.77407407407407403</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0.77090767172167696</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0.77041015081529296</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0.77064795087103599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.47972972972972899</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.239864864864864</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0.324200913242009</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0.55925925925925901</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0.27962962962962901</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0.35866983372921601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>10</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.96283783783783705</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.96666666666666601</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.96126760563380198</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.96261210054313495</v>
+      </c>
+      <c r="I27" s="3">
+        <v>10</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="3">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.60135135135135098</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.78308823529411697</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.58450704225352101</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0.506080660670852</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>10</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S27" s="3">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0.68756552736422705</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0.54978017697144999</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0.47436729396495703</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.66216216216216195</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.79338842975206603</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.67532467532467499</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.62940705128205099</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.67905405405405395</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.69033376062289298</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.68332723614413704</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0.67710450469071104</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0.44814814814814802</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0.43973015165031198</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0.43984083699705001</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0.439779420980072</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.57094594594594505</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.57034142328259896</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.57037680629229903</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.57035259157666096</v>
+      </c>
+      <c r="I29" s="3">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="3">
+        <v>2</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.68243243243243201</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.68303571428571397</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.67998902505944703</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0.67996319300667096</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S29" s="3">
+        <v>2</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0.41111111111111098</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0.407790492957746</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0.406728254215593</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0.40680659380138401</v>
+      </c>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="10"/>
+      <c r="AO29" s="10"/>
+      <c r="AP29" s="10"/>
+      <c r="AQ29" s="10"/>
+      <c r="AR29" s="10"/>
+      <c r="AS29" s="10"/>
+      <c r="AT29" s="10"/>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>100</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4">
+        <v>5</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.59459459459459396</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.59488584474885797</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.595024693616242</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.59452054794520504</v>
+      </c>
+      <c r="I30" s="3">
+        <v>100</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="3">
+        <v>5</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.67905405405405395</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.67908859588248904</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.67701664532650396</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0.67710450469071104</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>100</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S30" s="3">
+        <v>5</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0.407407407407407</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0.40458518885040401</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0.40341699593744701</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0.40344675209898301</v>
+      </c>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="10"/>
+      <c r="AP30" s="10"/>
+      <c r="AQ30" s="10"/>
+      <c r="AR30" s="10"/>
+      <c r="AS30" s="10"/>
+      <c r="AT30" s="10"/>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="G32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="I32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C33" s="3">
         <v>0.2</v>
       </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>10</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.99954351261192698</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.97747932855150399</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.879403313728219</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.92281061011278198</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="3">
+      <c r="K33" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L33" s="3">
+        <v>2</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0.99948472924864096</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0.98089757039466297</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0.85913146916690697</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0.91116131756117702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>10</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3">
         <v>6</v>
       </c>
-      <c r="D22" s="3">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="D34" s="3">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.99710891320887196</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.66750800342664596</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.88172423891531104</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.73253660360665396</v>
+      </c>
+      <c r="I34" s="3">
+        <v>10</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="3">
+        <v>6</v>
+      </c>
+      <c r="L34" s="3">
+        <v>5</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.99788036350009302</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0.70930281967728204</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0.85481268844739999</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0.763176471631966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>10</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.998349622520044</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.499174811260022</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.49958706488060001</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0.99833708075697902</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0.49916854037848901</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0.49958392423905001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>10</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.99838473693451102</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.83254317577006198</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.52125900951352699</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.53959582942830298</v>
+      </c>
+      <c r="I36" s="3">
+        <v>10</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="3">
+        <v>5</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0.99841905564924105</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0.99920946302043601</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0.52464788732394296</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0.54658428456045405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>10</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.99736641891496403</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.53922071834534402</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.52782948323753598</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.53253569554425495</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0.99743535694210195</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0.55864384377258902</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0.541731526991863</v>
+      </c>
+      <c r="P37" s="3">
+        <v>0.548740641709487</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>10</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.99671094984491104</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.51271034304204599</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.51334025806775596</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.51301717482581199</v>
+      </c>
+      <c r="I38" s="3">
+        <v>10</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="3">
+        <v>2</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0.99695521828742695</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0.52906489626044595</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0.52743001115195498</v>
+      </c>
+      <c r="P38" s="3">
+        <v>0.528223079676995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>100</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3">
-        <v>5</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.99683970269795696</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.52048521534277603</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.52048521534277603</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.52048521534277603</v>
+      </c>
+      <c r="I39" s="3">
+        <v>100</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="3">
+        <v>5</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0.99716601086752799</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0.55083084532102899</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0.54511189128908299</v>
+      </c>
+      <c r="P39" s="3">
+        <v>0.54779785185825702</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="7"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.99537377773104796</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.97188717029562699</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.84973350389084301</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.90148440545625397</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L42" s="3">
+        <v>2</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0.99940248145935096</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0.97295032822903704</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0.85095816704237404</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0.90289221496146399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>10</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3">
+        <v>6</v>
+      </c>
+      <c r="D43" s="3">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.978446009883293</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.68019410213000497</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.87528802079489598</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.74140785966894696</v>
+      </c>
+      <c r="I43" s="3">
+        <v>10</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
+        <v>6</v>
+      </c>
+      <c r="L43" s="3">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0.997258444342905</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0.68517009099597903</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0.89285431691666595</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0.75143135480713097</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.98633161602355102</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.49316580801177501</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.49655939021808099</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0.99823087647768605</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0.49911543823884302</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0.49955732754829801</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>10</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="3">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.987067605929975</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.90272248803827704</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.53450878617172104</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.560572544503255</v>
+      </c>
+      <c r="I45" s="3">
+        <v>10</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="3">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0.99834803697585295</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0.99917392170418196</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0.53311258278145601</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0.56169842060955799</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.97623804016402005</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.53303545924511098</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.52901896632309098</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.53086756563750004</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0.99758649373777097</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0.530884266005616</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0.51289879710873298</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0.51808745486673902</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>10</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.96982441383661</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.51388325381619604</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.518182004542733</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.51559062512810505</v>
+      </c>
+      <c r="I47" s="3">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" s="3">
+        <v>2</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0.99691867889822205</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0.51184367645581996</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0.50925890804727203</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0.51038087027239998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>100</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4">
+        <v>5</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0.97234780780149299</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.51724181770102295</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.51946118586668599</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0.51825555406832902</v>
+      </c>
+      <c r="I48" s="4">
+        <v>100</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="4">
+        <v>5</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M48" s="4">
+        <v>0.996824950499689</v>
+      </c>
+      <c r="N48" s="4">
+        <v>0.525274520975194</v>
+      </c>
+      <c r="O48" s="4">
+        <v>0.52243352027771595</v>
+      </c>
+      <c r="P48" s="4">
+        <v>0.52376631370176396</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A19:H19"/>
+  <mergeCells count="13">
+    <mergeCell ref="Q22:X22"/>
+    <mergeCell ref="A21:X21"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="I31:P31"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="I40:P40"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="I12:P12"/>
+    <mergeCell ref="A11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
